--- a/Resumenes-compras-ventas/SETIEMBRE2024.xlsx
+++ b/Resumenes-compras-ventas/SETIEMBRE2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMITH\Desktop\Boletas\Resumenes-compras-ventas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57F13277-DAB9-4264-BAE7-06A2BFF947E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5BA916-C0E7-47DA-BB01-05FF72C69DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E2FA93AC-A9ED-49AE-9201-3130AD7C9D51}"/>
   </bookViews>
@@ -123,14 +123,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,81 +448,84 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
         <v>157.19999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
         <v>136.80000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <f>33.57+24+38.4+40.39</f>
         <v>136.36000000000001</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <f>75+45+35+25+40</f>
         <v>220</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="1">
+        <f>19.3+17.1+200.9+31+233.59</f>
+        <v>501.89</v>
+      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
         <f>SUM(C6:C10)</f>
-        <v>136.36000000000001</v>
-      </c>
-      <c r="D11" s="3">
+        <v>638.25</v>
+      </c>
+      <c r="D11" s="1">
         <f>SUM(D6:D10)</f>
         <v>514</v>
       </c>
